--- a/image/insuranceplan.xlsx
+++ b/image/insuranceplan.xlsx
@@ -1146,43 +1146,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.90234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.44140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.51953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.43359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.36328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.73828125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/insuranceplan.xlsx
+++ b/image/insuranceplan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="319">
   <si>
     <t>Path</t>
   </si>
@@ -159,7 +159,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -411,10 +411,6 @@
   </si>
   <si>
     <t>InsurancePlan.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Official name</t>
@@ -1146,43 +1142,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.90234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.36328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.7109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.51953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.43359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.65234375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.73828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2579,16 +2575,16 @@
         <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2656,12 +2652,12 @@
         <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2684,19 +2680,19 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>38</v>
@@ -2745,7 +2741,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2763,12 +2759,12 @@
         <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2791,13 +2787,13 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2848,7 +2844,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2871,11 +2867,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2894,13 +2890,13 @@
         <v>47</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2951,7 +2947,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2974,7 +2970,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2997,13 +2993,13 @@
         <v>47</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3054,7 +3050,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -3077,7 +3073,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3100,13 +3096,13 @@
         <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3157,7 +3153,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3180,7 +3176,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3203,19 +3199,19 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>38</v>
@@ -3264,7 +3260,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3276,18 +3272,18 @@
         <v>38</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3310,13 +3306,13 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3367,7 +3363,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3385,12 +3381,12 @@
         <v>38</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3419,7 +3415,7 @@
         <v>92</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>94</v>
@@ -3472,7 +3468,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3490,16 +3486,16 @@
         <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3521,10 +3517,10 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>94</v>
@@ -3579,7 +3575,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3602,7 +3598,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3628,14 +3624,14 @@
         <v>119</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>38</v>
@@ -3660,14 +3656,14 @@
         <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>38</v>
       </c>
@@ -3684,7 +3680,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3702,12 +3698,12 @@
         <v>38</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3730,17 +3726,17 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>38</v>
@@ -3789,7 +3785,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3807,12 +3803,12 @@
         <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3835,17 +3831,17 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>38</v>
@@ -3894,7 +3890,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3912,12 +3908,12 @@
         <v>38</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3940,17 +3936,17 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>38</v>
@@ -3999,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4017,12 +4013,12 @@
         <v>38</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4045,17 +4041,17 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>38</v>
@@ -4104,7 +4100,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4122,12 +4118,12 @@
         <v>38</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4150,16 +4146,16 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4209,7 +4205,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4232,7 +4228,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4255,13 +4251,13 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4312,7 +4308,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4324,7 +4320,7 @@
         <v>38</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>38</v>
@@ -4335,7 +4331,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4358,13 +4354,13 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4415,7 +4411,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4433,12 +4429,12 @@
         <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4467,7 +4463,7 @@
         <v>92</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>94</v>
@@ -4520,7 +4516,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4538,16 +4534,16 @@
         <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4569,10 +4565,10 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>94</v>
@@ -4627,7 +4623,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4650,7 +4646,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4676,10 +4672,10 @@
         <v>119</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4730,7 +4726,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>46</v>
@@ -4753,7 +4749,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4776,16 +4772,16 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4835,7 +4831,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4858,7 +4854,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4881,13 +4877,13 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4938,7 +4934,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>46</v>
@@ -4950,7 +4946,7 @@
         <v>38</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>38</v>
@@ -4961,7 +4957,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4984,13 +4980,13 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5041,7 +5037,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5059,12 +5055,12 @@
         <v>38</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5093,7 +5089,7 @@
         <v>92</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>94</v>
@@ -5146,7 +5142,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5164,16 +5160,16 @@
         <v>38</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5195,10 +5191,10 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>94</v>
@@ -5253,7 +5249,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5276,7 +5272,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5302,10 +5298,10 @@
         <v>119</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5356,7 +5352,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>46</v>
@@ -5379,7 +5375,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5402,13 +5398,13 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5459,7 +5455,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5482,7 +5478,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5505,13 +5501,13 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5562,7 +5558,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5574,7 +5570,7 @@
         <v>38</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>38</v>
@@ -5585,7 +5581,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5608,13 +5604,13 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5665,7 +5661,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5683,12 +5679,12 @@
         <v>38</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5717,7 +5713,7 @@
         <v>92</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>94</v>
@@ -5770,7 +5766,7 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5788,16 +5784,16 @@
         <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5819,10 +5815,10 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>94</v>
@@ -5877,7 +5873,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5900,7 +5896,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5923,16 +5919,16 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -5982,7 +5978,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -6005,7 +6001,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6031,13 +6027,13 @@
         <v>119</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6087,7 +6083,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6110,7 +6106,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6133,13 +6129,13 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6190,7 +6186,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6202,7 +6198,7 @@
         <v>38</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>38</v>
@@ -6213,7 +6209,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6236,13 +6232,13 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6293,7 +6289,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6311,12 +6307,12 @@
         <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6345,7 +6341,7 @@
         <v>92</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>94</v>
@@ -6398,7 +6394,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6416,16 +6412,16 @@
         <v>38</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6447,10 +6443,10 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>94</v>
@@ -6505,7 +6501,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6528,7 +6524,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6557,7 +6553,7 @@
         <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6608,7 +6604,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6631,7 +6627,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6657,10 +6653,10 @@
         <v>119</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6711,7 +6707,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6734,7 +6730,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6757,13 +6753,13 @@
         <v>47</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K54" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="L54" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6814,7 +6810,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6837,7 +6833,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6860,16 +6856,16 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -6919,7 +6915,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -6942,7 +6938,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6965,13 +6961,13 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7022,7 +7018,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -7034,7 +7030,7 @@
         <v>38</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>38</v>
@@ -7045,7 +7041,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7068,13 +7064,13 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7125,7 +7121,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -7143,12 +7139,12 @@
         <v>38</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7177,7 +7173,7 @@
         <v>92</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>94</v>
@@ -7230,7 +7226,7 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
@@ -7248,16 +7244,16 @@
         <v>38</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7279,10 +7275,10 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>94</v>
@@ -7337,7 +7333,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7360,7 +7356,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7386,10 +7382,10 @@
         <v>119</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7440,7 +7436,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -7463,7 +7459,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7486,13 +7482,13 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7543,7 +7539,7 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
@@ -7566,7 +7562,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7589,13 +7585,13 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7646,7 +7642,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7669,7 +7665,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7692,13 +7688,13 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7749,7 +7745,7 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
@@ -7772,7 +7768,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7795,13 +7791,13 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7852,7 +7848,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -7864,7 +7860,7 @@
         <v>38</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>38</v>
@@ -7875,7 +7871,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7898,13 +7894,13 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7955,7 +7951,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -7973,12 +7969,12 @@
         <v>38</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8007,7 +8003,7 @@
         <v>92</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>94</v>
@@ -8060,7 +8056,7 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>39</v>
@@ -8078,16 +8074,16 @@
         <v>38</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8109,10 +8105,10 @@
         <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>94</v>
@@ -8167,7 +8163,7 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
@@ -8190,7 +8186,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8216,10 +8212,10 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8270,7 +8266,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>46</v>
@@ -8293,7 +8289,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8316,13 +8312,13 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8373,7 +8369,7 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>39</v>
@@ -8385,7 +8381,7 @@
         <v>38</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>38</v>
@@ -8396,7 +8392,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8419,13 +8415,13 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8476,7 +8472,7 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>39</v>
@@ -8494,12 +8490,12 @@
         <v>38</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8528,7 +8524,7 @@
         <v>92</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>94</v>
@@ -8581,7 +8577,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -8599,16 +8595,16 @@
         <v>38</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -8630,10 +8626,10 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>94</v>
@@ -8688,7 +8684,7 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
@@ -8711,7 +8707,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8737,10 +8733,10 @@
         <v>119</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8791,7 +8787,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>46</v>
@@ -8814,7 +8810,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8837,13 +8833,13 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -8894,7 +8890,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -8906,7 +8902,7 @@
         <v>38</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>38</v>
@@ -8917,7 +8913,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8940,13 +8936,13 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8997,7 +8993,7 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
@@ -9015,12 +9011,12 @@
         <v>38</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9049,7 +9045,7 @@
         <v>92</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>94</v>
@@ -9102,7 +9098,7 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>39</v>
@@ -9120,16 +9116,16 @@
         <v>38</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9151,10 +9147,10 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>94</v>
@@ -9209,7 +9205,7 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>39</v>
@@ -9232,7 +9228,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9258,10 +9254,10 @@
         <v>119</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9312,7 +9308,7 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>46</v>
@@ -9335,7 +9331,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9361,10 +9357,10 @@
         <v>119</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9394,11 +9390,11 @@
         <v>113</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>38</v>
       </c>
@@ -9415,7 +9411,7 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>39</v>
@@ -9438,7 +9434,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9464,10 +9460,10 @@
         <v>119</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9518,7 +9514,7 @@
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>39</v>
@@ -9541,7 +9537,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9564,13 +9560,13 @@
         <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9621,7 +9617,7 @@
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>39</v>
